--- a/Datos/Datos.xlsx
+++ b/Datos/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BDGSA\Documents\UiPath\MyCRM\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{086E2775-2402-4F43-B714-88F29887E001}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13040944-17E0-4B53-BB7D-370362C6F983}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>Last Name</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>Error: The UiElement is no longer valid Fuente: Estado</t>
   </si>
 </sst>
 </file>
@@ -663,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +773,9 @@
       <c r="M2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -815,8 +823,12 @@
       <c r="M3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="N3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -863,7 +875,9 @@
       <c r="M4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -911,7 +925,9 @@
       <c r="M5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -959,7 +975,9 @@
       <c r="M6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1007,7 +1025,9 @@
       <c r="M7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1055,7 +1075,9 @@
       <c r="M8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
